--- a/KiCad/FairberryMainboard/cpl/CPL.xlsx
+++ b/KiCad/FairberryMainboard/cpl/CPL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -52,90 +52,66 @@
     <t xml:space="preserve">C_0402_1005Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">189.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.950000</t>
+    <t xml:space="preserve">189.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-92.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-86.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-83.350000</t>
   </si>
   <si>
     <t xml:space="preserve">-90.000000</t>
   </si>
   <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-91.350000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188.150000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-81.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-85.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED Yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-82.250000</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
@@ -145,13 +121,10 @@
     <t xml:space="preserve">R_0402_1005Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">188.550000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-83.150000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.000000</t>
+    <t xml:space="preserve">189.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.750000</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
@@ -160,10 +133,10 @@
     <t xml:space="preserve">R_0603_1608Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">179.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-95.500000</t>
+    <t xml:space="preserve">178.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-94.200000</t>
   </si>
   <si>
     <t xml:space="preserve">180.000000</t>
@@ -172,25 +145,7 @@
     <t xml:space="preserve">R3</t>
   </si>
   <si>
-    <t xml:space="preserve">-93.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.350000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-84.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-80.050000</t>
+    <t xml:space="preserve">-95.750000</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -202,10 +157,13 @@
     <t xml:space="preserve">QFN-44-1EP_7x7mm_P0.5mm_EP5.2x5.2mm</t>
   </si>
   <si>
-    <t xml:space="preserve">183.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-86.300000</t>
+    <t xml:space="preserve">183.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.000000</t>
   </si>
   <si>
     <t xml:space="preserve">U2</t>
@@ -217,7 +175,7 @@
     <t xml:space="preserve">BM14B(0.8)-24DS-0.4V(53)</t>
   </si>
   <si>
-    <t xml:space="preserve">172.050000</t>
+    <t xml:space="preserve">173.900000</t>
   </si>
   <si>
     <t xml:space="preserve">-92.700000</t>
@@ -232,10 +190,10 @@
     <t xml:space="preserve">Crystal_SMD_SeikoEpson_FA238-4Pin_3.2x2.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">187.650000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.050000</t>
+    <t xml:space="preserve">189.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84.000000</t>
   </si>
 </sst>
 </file>
@@ -332,13 +290,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
@@ -412,7 +370,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>13</v>
@@ -420,7 +378,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -429,13 +387,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>13</v>
@@ -443,22 +401,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>13</v>
@@ -469,7 +427,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -504,7 +462,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>13</v>
@@ -514,20 +472,20 @@
       <c r="A8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>13</v>
@@ -535,22 +493,22 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>13</v>
@@ -558,22 +516,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>13</v>
@@ -581,22 +539,22 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>22</v>
-      </c>
       <c r="C11" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>13</v>
@@ -604,116 +562,24 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>470</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>680</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/KiCad/FairberryMainboard/cpl/CPL.xlsx
+++ b/KiCad/FairberryMainboard/cpl/CPL.xlsx
@@ -163,7 +163,7 @@
     <t xml:space="preserve">-88.200000</t>
   </si>
   <si>
-    <t xml:space="preserve">135.000000</t>
+    <t xml:space="preserve">45.000000</t>
   </si>
   <si>
     <t xml:space="preserve">U2</t>
@@ -293,10 +293,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>

--- a/KiCad/FairberryMainboard/cpl/CPL.xlsx
+++ b/KiCad/FairberryMainboard/cpl/CPL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -52,90 +52,66 @@
     <t xml:space="preserve">C_0402_1005Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">189.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.950000</t>
+    <t xml:space="preserve">189.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-92.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-86.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-83.350000</t>
   </si>
   <si>
     <t xml:space="preserve">-90.000000</t>
   </si>
   <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-91.350000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188.150000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-81.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-85.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED Yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-82.250000</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
@@ -145,69 +121,51 @@
     <t xml:space="preserve">R_0402_1005Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">188.550000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-83.150000</t>
+    <t xml:space="preserve">189.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-94.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-95.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATmega32U4-MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-44-1EP_7x7mm_P0.5mm_EP5.2x5.2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.200000</t>
   </si>
   <si>
     <t xml:space="preserve">45.000000</t>
   </si>
   <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-95.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-93.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.350000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-84.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-80.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATmega32U4-MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-44-1EP_7x7mm_P0.5mm_EP5.2x5.2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-86.300000</t>
-  </si>
-  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -217,7 +175,7 @@
     <t xml:space="preserve">BM14B(0.8)-24DS-0.4V(53)</t>
   </si>
   <si>
-    <t xml:space="preserve">172.050000</t>
+    <t xml:space="preserve">173.900000</t>
   </si>
   <si>
     <t xml:space="preserve">-92.700000</t>
@@ -232,10 +190,10 @@
     <t xml:space="preserve">Crystal_SMD_SeikoEpson_FA238-4Pin_3.2x2.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">187.650000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.050000</t>
+    <t xml:space="preserve">189.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84.000000</t>
   </si>
 </sst>
 </file>
@@ -332,13 +290,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
@@ -412,7 +370,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>13</v>
@@ -420,7 +378,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -429,13 +387,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>13</v>
@@ -443,22 +401,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>13</v>
@@ -469,7 +427,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -504,7 +462,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>13</v>
@@ -514,20 +472,20 @@
       <c r="A8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>13</v>
@@ -535,22 +493,22 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>13</v>
@@ -558,22 +516,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>13</v>
@@ -581,22 +539,22 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>22</v>
-      </c>
       <c r="C11" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>13</v>
@@ -604,116 +562,24 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>470</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>680</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
